--- a/DSAprogressME.xlsx
+++ b/DSAprogressME.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\csara\Downloads\LeetCode75\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C69ED55C-E95A-404A-AC86-988820BF605A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA6045A6-B413-4E66-A3F9-FDB40D4DD5D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="13056" xr2:uid="{C8A9F362-E96C-485C-9E81-6D483223F50B}"/>
+    <workbookView xWindow="2940" yWindow="4884" windowWidth="17280" windowHeight="9420" xr2:uid="{C8A9F362-E96C-485C-9E81-6D483223F50B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>PROBLEM NAME:</t>
   </si>
@@ -69,6 +69,15 @@
   </si>
   <si>
     <t xml:space="preserve">Next Greater Element II </t>
+  </si>
+  <si>
+    <t>Minimum size subarray sum (209)</t>
+  </si>
+  <si>
+    <t>(1493) Longest Subarray of 1's aft 0</t>
+  </si>
+  <si>
+    <t>Max Fruits  (904)</t>
   </si>
 </sst>
 </file>
@@ -450,15 +459,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43203F8E-F766-415B-924C-6E86579BDFCB}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.109375" customWidth="1"/>
+    <col min="1" max="1" width="31.33203125" customWidth="1"/>
     <col min="2" max="2" width="21.109375" customWidth="1"/>
     <col min="3" max="3" width="22.6640625" customWidth="1"/>
     <col min="4" max="4" width="22.88671875" customWidth="1"/>
@@ -552,6 +561,33 @@
         <v>45956</v>
       </c>
     </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="2">
+        <v>45953</v>
+      </c>
+      <c r="C10" s="2">
+        <v>45960</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="2">
+        <v>45954</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="2">
+        <v>45954</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/DSAprogressME.xlsx
+++ b/DSAprogressME.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\csara\Downloads\LeetCode75\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA6045A6-B413-4E66-A3F9-FDB40D4DD5D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5053FA5F-06A2-4AEA-A77A-E9302BD0B008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="4884" windowWidth="17280" windowHeight="9420" xr2:uid="{C8A9F362-E96C-485C-9E81-6D483223F50B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{C8A9F362-E96C-485C-9E81-6D483223F50B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>PROBLEM NAME:</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>Max Fruits  (904)</t>
+  </si>
+  <si>
+    <t>Binary Search</t>
   </si>
 </sst>
 </file>
@@ -459,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43203F8E-F766-415B-924C-6E86579BDFCB}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -579,6 +582,9 @@
       <c r="B11" s="2">
         <v>45954</v>
       </c>
+      <c r="C11" s="2">
+        <v>45963</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -586,6 +592,20 @@
       </c>
       <c r="B12" s="2">
         <v>45954</v>
+      </c>
+      <c r="C12" s="2">
+        <v>45963</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="2">
+        <v>45954</v>
+      </c>
+      <c r="C13" s="2">
+        <v>45963</v>
       </c>
     </row>
   </sheetData>

--- a/DSAprogressME.xlsx
+++ b/DSAprogressME.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\csara\Downloads\LeetCode75\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5053FA5F-06A2-4AEA-A77A-E9302BD0B008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49469A20-FE55-4B9E-89D9-FD0D07F32FC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{C8A9F362-E96C-485C-9E81-6D483223F50B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>PROBLEM NAME:</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>Binary Search</t>
+  </si>
+  <si>
+    <t>Contains water</t>
   </si>
 </sst>
 </file>
@@ -462,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43203F8E-F766-415B-924C-6E86579BDFCB}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -608,6 +611,11 @@
         <v>45963</v>
       </c>
     </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
